--- a/cost-calculator.xlsx
+++ b/cost-calculator.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Items/Day</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Charge</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Cost/GB is doubled as we storage the new and old images per update in S3</t>
+  </si>
+  <si>
+    <t>Cost/GB is doubled as we forward both the new and old images on update to the Firehose Delivery Stream</t>
   </si>
 </sst>
 </file>
@@ -84,9 +93,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.000_ ;\-[$$-409]#,##0.000\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.000_ ;\-[$$-409]#,##0.000\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -179,18 +188,18 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,24 +536,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:7" ht="20">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -555,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <v>1024</v>
       </c>
@@ -566,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <f>A3*31</f>
         <v>310000000</v>
@@ -575,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <f>(A3*A4*31)/1024/1024/1024</f>
         <v>295.6390380859375</v>
@@ -584,10 +594,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -600,8 +610,11 @@
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -616,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -631,13 +644,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3">
-        <f>A7*E12</f>
-        <v>10.347366333007814</v>
+        <f>A7*E12*2</f>
+        <v>20.694732666015629</v>
       </c>
       <c r="E12" s="4">
         <v>3.5000000000000003E-2</v>
@@ -645,14 +658,17 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3">
-        <f>A7*E13</f>
-        <v>8.869171142578125</v>
+        <f>A7*E13*2</f>
+        <v>17.73834228515625</v>
       </c>
       <c r="E13" s="4">
         <v>0.03</v>
@@ -660,17 +676,21 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18">
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8">
         <f>SUM(D10:D14)</f>
-        <v>142.51653747558595</v>
+        <v>161.73307495117189</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
